--- a/zad10/spr10.xlsx
+++ b/zad10/spr10.xlsx
@@ -24,129 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Dla klasy "KL"</t>
-  </si>
-  <si>
-    <t>WYKORZYST.</t>
-  </si>
-  <si>
-    <t>PRZEPUST.</t>
-  </si>
-  <si>
-    <t>1.Stan.</t>
   </si>
   <si>
     <t>ST1</t>
   </si>
   <si>
-    <t>0.0894902</t>
-  </si>
-  <si>
-    <t>2.1960784</t>
-  </si>
-  <si>
-    <t>0.6871165</t>
-  </si>
-  <si>
-    <t>24.539877</t>
-  </si>
-  <si>
     <t>QUEUE</t>
-  </si>
-  <si>
-    <t>0.0614902</t>
-  </si>
-  <si>
-    <t>1.5089618</t>
   </si>
   <si>
     <t>SERVER</t>
   </si>
   <si>
-    <t>0.0280000</t>
-  </si>
-  <si>
-    <t>2.Stan.</t>
-  </si>
-  <si>
     <t>ST2</t>
-  </si>
-  <si>
-    <t>0.0342300</t>
-  </si>
-  <si>
-    <t>0.6300000</t>
-  </si>
-  <si>
-    <t>0.3865030</t>
-  </si>
-  <si>
-    <t>18.404907</t>
-  </si>
-  <si>
-    <t>0.0132300</t>
-  </si>
-  <si>
-    <t>0.2434969</t>
-  </si>
-  <si>
-    <t>0.0210000</t>
-  </si>
-  <si>
-    <t>3.Stan.</t>
   </si>
   <si>
     <t>ST3</t>
   </si>
   <si>
-    <t>0.1650123</t>
-  </si>
-  <si>
-    <t>1.0123456</t>
-  </si>
-  <si>
-    <t>0.5030674</t>
-  </si>
-  <si>
-    <t>6.1349693</t>
-  </si>
-  <si>
-    <t>0.0830123</t>
-  </si>
-  <si>
-    <t>0.5092781</t>
-  </si>
-  <si>
-    <t>0.0820000</t>
-  </si>
-  <si>
-    <t>4.Stan.</t>
-  </si>
-  <si>
     <t>ST4</t>
-  </si>
-  <si>
-    <t>0.6216101</t>
-  </si>
-  <si>
-    <t>0.3813559</t>
-  </si>
-  <si>
-    <t>0.2760736</t>
-  </si>
-  <si>
-    <t>0.6134969</t>
-  </si>
-  <si>
-    <t>0.1716101</t>
-  </si>
-  <si>
-    <t>0.1052823</t>
-  </si>
-  <si>
-    <t>0.4500000</t>
   </si>
   <si>
     <t>WYNIKI</t>
@@ -167,17 +65,50 @@
     <t>klasy"</t>
   </si>
   <si>
-    <t>CZAS OBSŁ.</t>
+    <t>1) średnia liczba przejść zadania przez stanowisko obsługi ei = Lambdai/Lambda</t>
   </si>
   <si>
-    <t>LICZBA KL.</t>
+    <t>2) średni czas pobytu zadania na stanowisku obsługi qi^ = qi * ei</t>
+  </si>
+  <si>
+    <t>3) średni czas przejścia zadania przez sieć qsuma = Suma od i=1 do 4 po qi^</t>
+  </si>
+  <si>
+    <t>4) histogramy średniej liczby zadań w kolejkach do stanowisk obsługi vi^</t>
+  </si>
+  <si>
+    <t>CZAS OBSŁ,</t>
+  </si>
+  <si>
+    <t>LICZBA KL,</t>
+  </si>
+  <si>
+    <t>WYKORZYST,</t>
+  </si>
+  <si>
+    <t>PRZEPUST,</t>
+  </si>
+  <si>
+    <t>1,Stan,</t>
+  </si>
+  <si>
+    <t>2,Stan,</t>
+  </si>
+  <si>
+    <t>3,Stan,</t>
+  </si>
+  <si>
+    <t>4,Stan,</t>
+  </si>
+  <si>
+    <t>5) histogramy średniej liczby zadań na stanowiskach obsługi (węzłach obsługi), ni^</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +116,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,13 +156,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,6 +193,2886 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Średnia liczba przejść zadania przez stanowisko obsługi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$33:$L$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ST1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ST2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ST3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ST4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$34:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40.012003076923079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.009001538461536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.00300076923077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-11648208"/>
+        <c:axId val="-11647120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-11648208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-11647120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-11647120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-11648208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Średni czas pobytu zadania na stanowisku obsługi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$33:$L$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ST1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ST2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ST3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ST4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$35:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.72821845600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40962287100000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53315994099999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29258774999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-635864400"/>
+        <c:axId val="-635857328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-635864400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-635857328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-635857328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-635864400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>vi &amp; ni</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>średnia liczba zadań w kolejkach do stanowisk obsługi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$33:$L$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ST1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ST2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ST3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ST4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$37:$L$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9512073000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28420970000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60890129999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1210151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>średnia liczba zadań na stanowiskach obsługi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$33:$L$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ST1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ST2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ST3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ST4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$38:$L$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.6794258000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69383260000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1420612000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4136029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2104482912"/>
+        <c:axId val="-2104489440"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$33:$K$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>ST1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ST2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>ST3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$33:$L$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>ST1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ST2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>ST3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ST4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$L$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2104482912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104489440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2104489440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104482912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,34 +3338,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G30" sqref="A3:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -540,125 +3378,125 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
+      <c r="D4" s="1">
+        <v>0.1030239</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.6794258000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.72821840000000004</v>
+      </c>
+      <c r="G4" s="1">
+        <v>26.007802000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.5023900000000004E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.9512073000000001</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
+      <c r="G5" s="1">
+        <v>26.007802000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.72821840000000004</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.72821840000000004</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
+      <c r="D7" s="1">
+        <v>3.5570400000000002E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.69383260000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.40962280000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>19.505851</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.4570400000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.28420970000000001</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
+      <c r="G8" s="1">
+        <v>19.505851</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.40962280000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.40962280000000001</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -667,108 +3505,108 @@
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
+      <c r="D10" s="1">
+        <v>0.175649</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.1420612000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.53315990000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.5019505000000004</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.3648999999999996E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.60890129999999998</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
+      <c r="G11" s="1">
+        <v>6.5019505000000004</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.53315990000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.53315990000000002</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>37</v>
+      <c r="D13" s="1">
+        <v>0.6361213</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.4136029</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.29258770000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.65019499999999997</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.18612129999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.1210151</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>37</v>
+      <c r="G14" s="1">
+        <v>0.65019499999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.29258770000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.29258770000000001</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -776,20 +3614,20 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,244 +3638,370 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>2</v>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>0.1030239</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.6794258000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.72821840000000004</v>
+      </c>
+      <c r="G19" s="1">
+        <v>26.007802000000002</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.5023900000000004E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.9512073000000001</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>8</v>
+      <c r="G20" s="1">
+        <v>26.007802000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.72821840000000004</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.72821840000000004</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>19</v>
+      <c r="D22" s="1">
+        <v>3.5570400000000002E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.69383260000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.40962280000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>19.505851</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.4570400000000001E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.28420970000000001</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>19</v>
+      <c r="G23" s="1">
+        <v>19.505851</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.40962280000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.40962280000000001</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>28</v>
+      <c r="D25" s="1">
+        <v>0.175649</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.1420612000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.53315990000000002</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6.5019505000000004</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9.3648999999999996E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.60890129999999998</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>28</v>
+      <c r="G26" s="1">
+        <v>6.5019505000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.53315990000000002</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.53315990000000002</v>
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>37</v>
+      <c r="D28" s="1">
+        <v>0.6361213</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.4136029</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.29258770000000001</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.65019499999999997</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.45</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.18612129999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.1210151</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>37</v>
+      <c r="G29" s="1">
+        <v>0.65019499999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.29258770000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.29258770000000001</v>
       </c>
       <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1.538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <f>G19/0.65</f>
+        <v>40.012003076923079</v>
+      </c>
+      <c r="J34">
+        <f>G22/0.65</f>
+        <v>30.009001538461536</v>
+      </c>
+      <c r="K34">
+        <f>G25/0.65</f>
+        <v>10.00300076923077</v>
+      </c>
+      <c r="L34">
+        <f>G28/0.65</f>
+        <v>1.0003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35">
+        <f>G19/(1/H19)</f>
+        <v>0.72821845600000001</v>
+      </c>
+      <c r="J35">
+        <f>G22/(1/H22)</f>
+        <v>0.40962287100000006</v>
+      </c>
+      <c r="K35">
+        <f>G25/(1/H25)</f>
+        <v>0.53315994099999997</v>
+      </c>
+      <c r="L35">
+        <f>G28/(1/H28)</f>
+        <v>0.29258774999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36">
+        <f>SUM(I35:L35)</f>
+        <v>1.963589018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <f>E20</f>
+        <v>1.9512073000000001</v>
+      </c>
+      <c r="J37">
+        <f>E23</f>
+        <v>0.28420970000000001</v>
+      </c>
+      <c r="K37">
+        <f>E26</f>
+        <v>0.60890129999999998</v>
+      </c>
+      <c r="L37">
+        <f>E29</f>
+        <v>0.1210151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38">
+        <f>E19</f>
+        <v>2.6794258000000002</v>
+      </c>
+      <c r="J38">
+        <f>E22</f>
+        <v>0.69383260000000002</v>
+      </c>
+      <c r="K38">
+        <f>E25</f>
+        <v>1.1420612000000001</v>
+      </c>
+      <c r="L38">
+        <f>E28</f>
+        <v>0.4136029</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>